--- a/ETL/ArquivosExcel/Vendas_Consolidado/Vendas_Consolidadas.xlsx
+++ b/ETL/ArquivosExcel/Vendas_Consolidado/Vendas_Consolidadas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2666,6 +2666,53 @@
         <v>2959.2</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B48" t="n">
+        <v>394</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Automitivos</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>639</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Limpa vidros</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>250</v>
+      </c>
+      <c r="J48" t="n">
+        <v>290</v>
+      </c>
+      <c r="K48" t="n">
+        <v>300</v>
+      </c>
+      <c r="L48" t="n">
+        <v>87000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>19392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
